--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>892482.2209738409</v>
+        <v>972937.0373345277</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6118196.899325182</v>
+        <v>6118196.899325181</v>
       </c>
     </row>
     <row r="11">
@@ -670,58 +670,58 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,23 +895,23 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y6" t="n">
-        <v>188.889044451203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>45.76937707216953</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>276.1565137023554</v>
       </c>
       <c r="G11" t="n">
-        <v>276.1565137023554</v>
+        <v>155.8903435161421</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>102.2133755837552</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>110.7586968952467</v>
+        <v>119.4364635729388</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>21.57990476584687</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>13.46550985000063</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>153.551289182031</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>91.10378467502352</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S14" t="n">
         <v>205.8118405263978</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1565137023554</v>
+        <v>226.2350166920997</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>164.1006005274914</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>175.3259101649331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>26.51572092966546</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G17" t="n">
-        <v>226.2350166920997</v>
+        <v>243.2386572690347</v>
       </c>
       <c r="H17" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>27.97113402646751</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>150.7268621358027</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>7.203367682519121</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F20" t="n">
         <v>276.1565137023554</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>226.9987351008517</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>243.2386572690345</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.2681884137393</v>
+        <v>86.10932846892986</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>147.0493328365246</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>7.203367682519121</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>316.3070330925412</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,16 +2368,16 @@
         <v>91.09422701486457</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T23" t="n">
         <v>218.9999812970856</v>
       </c>
       <c r="U23" t="n">
-        <v>62.78614207774725</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>150.3508166376207</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2411,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S24" t="n">
         <v>162.3842949358346</v>
@@ -2462,10 +2462,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>81.95473804369394</v>
       </c>
     </row>
     <row r="25">
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>232.9366371700896</v>
       </c>
       <c r="F26" t="n">
-        <v>71.571732897302</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>414.3670737191223</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2707998041555</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>162.9266846996378</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2642,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>235.5126161486726</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>12.49659271983031</v>
+        <v>166.4440780709522</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>405.317054036558</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>110.1758619010007</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2879,19 +2879,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>47.23264428033649</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S30" t="n">
-        <v>146.2019279235879</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>198.1468615877626</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>166.4440780709522</v>
+        <v>200.8294330837152</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>306.7317990442825</v>
+        <v>17.823264702909</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3110,22 +3110,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>86.43108486768276</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,13 +3158,13 @@
         <v>69.07521525435415</v>
       </c>
       <c r="S33" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>198.1468615877626</v>
       </c>
       <c r="U33" t="n">
-        <v>140.6508640074032</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>21.02303004802092</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>80.38081603025543</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>226.1522977307185</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>414.3670737191223</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>299.4245068773267</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>91.09422701486457</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T35" t="n">
-        <v>20.61019960370144</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3362,10 +3362,10 @@
         <v>136.8428928972591</v>
       </c>
       <c r="H36" t="n">
-        <v>107.4004677732277</v>
+        <v>91.84900635841736</v>
       </c>
       <c r="I36" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V36" t="n">
-        <v>31.7556621669136</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>166.4440780709522</v>
+        <v>285.7202553089153</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>120.4146117706386</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>414.3670737191223</v>
       </c>
       <c r="H38" t="n">
-        <v>31.22950823944509</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>91.09422701486457</v>
       </c>
       <c r="S38" t="n">
         <v>187.6986308346051</v>
@@ -3590,16 +3590,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>54.72142068860915</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>13.16949555590108</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3638,16 +3638,16 @@
         <v>198.1468615877626</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9084462740043</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>12.49659271983031</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>200.8294330837151</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>85.73630460541079</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>38.88233154245355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>110.9672274299675</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3827,16 +3827,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>219.9260941525198</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>89.83085654150841</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>47.4254408365687</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>216.7022572194656</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.3670737191223</v>
@@ -3997,7 +3997,7 @@
         <v>329.8924352648517</v>
       </c>
       <c r="I44" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>187.6986308346051</v>
       </c>
       <c r="T44" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2707998041555</v>
+        <v>238.023125953721</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>31.77957655493707</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4058,22 +4058,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>72.38749818879991</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>96.66731821933573</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4115,13 +4115,13 @@
         <v>225.9084462740043</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>47.42544083656865</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>127.7140482026746</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4415,19 +4415,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,22 +4436,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>913.4938269565423</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V3" t="n">
-        <v>678.3417187247995</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W3" t="n">
-        <v>434.8929420806995</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
         <v>19.28114311021272</v>
@@ -4521,13 +4521,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
         <v>19.28114311021272</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>569.2254314512334</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>325.7766548071333</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>569.2254314512334</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>569.2254314512334</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>569.2254314512334</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168.9696854242497</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>168.9696854242497</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
         <v>20.03527576299844</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>735.8335372470253</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>735.8335372470253</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X6" t="n">
-        <v>527.9820370414925</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>337.1850224443177</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4758,10 +4758,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
         <v>19.28114311021272</v>
@@ -4892,43 +4892,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>487.8483949674443</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>816.6559320512295</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>816.6559320512295</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>816.6559320512295</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V9" t="n">
-        <v>816.6559320512295</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W9" t="n">
-        <v>816.6559320512295</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>816.6559320512295</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>816.6559320512295</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>579.9844679696338</v>
+        <v>458.5034879835596</v>
       </c>
       <c r="C11" t="n">
-        <v>579.9844679696338</v>
+        <v>458.5034879835596</v>
       </c>
       <c r="D11" t="n">
-        <v>579.9844679696338</v>
+        <v>458.5034879835596</v>
       </c>
       <c r="E11" t="n">
-        <v>579.9844679696338</v>
+        <v>458.5034879835596</v>
       </c>
       <c r="F11" t="n">
-        <v>301.0384945329111</v>
+        <v>179.557514546837</v>
       </c>
       <c r="G11" t="n">
         <v>22.09252109618843</v>
@@ -5041,7 +5041,7 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K11" t="n">
         <v>142.8373253438683</v>
@@ -5056,7 +5056,7 @@
         <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5068,25 +5068,25 @@
         <v>962.1762753293416</v>
       </c>
       <c r="S11" t="n">
-        <v>858.9304414063565</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="T11" t="n">
-        <v>858.9304414063565</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="U11" t="n">
-        <v>858.9304414063565</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="V11" t="n">
-        <v>858.9304414063565</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="W11" t="n">
-        <v>858.9304414063565</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="X11" t="n">
-        <v>858.9304414063565</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="Y11" t="n">
-        <v>579.9844679696338</v>
+        <v>458.5034879835596</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>728.087949308923</v>
+        <v>815.7678252914357</v>
       </c>
       <c r="C12" t="n">
-        <v>728.087949308923</v>
+        <v>815.7678252914357</v>
       </c>
       <c r="D12" t="n">
-        <v>579.1535396476718</v>
+        <v>666.8334156301844</v>
       </c>
       <c r="E12" t="n">
-        <v>419.9160846422163</v>
+        <v>507.5959606247288</v>
       </c>
       <c r="F12" t="n">
-        <v>273.3815266691013</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7267908976475</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I12" t="n">
         <v>22.09252109618843</v>
@@ -5123,49 +5123,49 @@
         <v>28.39914141318533</v>
       </c>
       <c r="K12" t="n">
-        <v>45.18387750277341</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L12" t="n">
-        <v>291.3393440954744</v>
+        <v>282.0379868638976</v>
       </c>
       <c r="M12" t="n">
-        <v>564.7342926608062</v>
+        <v>555.4329354292295</v>
       </c>
       <c r="N12" t="n">
-        <v>838.129241226138</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="O12" t="n">
-        <v>1104.626054809422</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P12" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q12" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>896.3032863289911</v>
+        <v>983.9831623115037</v>
       </c>
       <c r="T12" t="n">
-        <v>896.3032863289911</v>
+        <v>983.9831623115037</v>
       </c>
       <c r="U12" t="n">
-        <v>896.3032863289911</v>
+        <v>983.9831623115037</v>
       </c>
       <c r="V12" t="n">
-        <v>896.3032863289911</v>
+        <v>983.9831623115037</v>
       </c>
       <c r="W12" t="n">
-        <v>896.3032863289911</v>
+        <v>983.9831623115037</v>
       </c>
       <c r="X12" t="n">
-        <v>896.3032863289911</v>
+        <v>983.9831623115037</v>
       </c>
       <c r="Y12" t="n">
-        <v>896.3032863289911</v>
+        <v>983.9831623115037</v>
       </c>
     </row>
     <row r="13">
@@ -5178,22 +5178,22 @@
         <v>198.9927170031357</v>
       </c>
       <c r="C13" t="n">
-        <v>177.1948334012702</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="D13" t="n">
-        <v>177.1948334012702</v>
+        <v>185.391191902125</v>
       </c>
       <c r="E13" t="n">
-        <v>177.1948334012702</v>
+        <v>185.391191902125</v>
       </c>
       <c r="F13" t="n">
-        <v>177.1948334012702</v>
+        <v>185.391191902125</v>
       </c>
       <c r="G13" t="n">
-        <v>177.1948334012702</v>
+        <v>185.391191902125</v>
       </c>
       <c r="H13" t="n">
-        <v>177.1948334012702</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I13" t="n">
         <v>22.09252109618843</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>393.0625194571773</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="C14" t="n">
-        <v>393.0625194571773</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="D14" t="n">
-        <v>393.0625194571773</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="E14" t="n">
-        <v>393.0625194571773</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="F14" t="n">
-        <v>393.0625194571773</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G14" t="n">
-        <v>114.1165460204546</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H14" t="n">
-        <v>114.1165460204546</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I14" t="n">
         <v>22.09252109618843</v>
@@ -5284,13 +5284,13 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L14" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M14" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N14" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O14" t="n">
         <v>989.7620250901064</v>
@@ -5302,28 +5302,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R14" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S14" t="n">
-        <v>896.7353068029593</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="T14" t="n">
-        <v>672.0084928939</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="U14" t="n">
-        <v>672.0084928939</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="V14" t="n">
-        <v>672.0084928939</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="W14" t="n">
-        <v>672.0084928939</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="X14" t="n">
-        <v>672.0084928939</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="Y14" t="n">
-        <v>393.0625194571773</v>
+        <v>301.0384945329111</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>256.306955051816</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="C15" t="n">
-        <v>256.306955051816</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="D15" t="n">
-        <v>256.306955051816</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="E15" t="n">
-        <v>256.306955051816</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="F15" t="n">
-        <v>109.772397078701</v>
+        <v>160.7472568676422</v>
       </c>
       <c r="G15" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H15" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I15" t="n">
         <v>22.09252109618843</v>
@@ -5363,19 +5363,19 @@
         <v>22.09252109618843</v>
       </c>
       <c r="L15" t="n">
-        <v>268.2479876888894</v>
+        <v>94.45522409818579</v>
       </c>
       <c r="M15" t="n">
-        <v>541.6429362542212</v>
+        <v>367.8501726635176</v>
       </c>
       <c r="N15" t="n">
-        <v>815.037884819553</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O15" t="n">
-        <v>1081.534698402837</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.534698402837</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q15" t="n">
         <v>1104.626054809422</v>
@@ -5396,13 +5396,13 @@
         <v>641.2553342118267</v>
       </c>
       <c r="W15" t="n">
-        <v>641.2553342118267</v>
+        <v>475.4971518608253</v>
       </c>
       <c r="X15" t="n">
-        <v>433.4038340062939</v>
+        <v>475.4971518608253</v>
       </c>
       <c r="Y15" t="n">
-        <v>256.306955051816</v>
+        <v>475.4971518608253</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="C16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="D16" t="n">
-        <v>22.09252109618843</v>
+        <v>48.87607759080001</v>
       </c>
       <c r="E16" t="n">
         <v>22.09252109618843</v>
@@ -5478,10 +5478,10 @@
         <v>198.9927170031357</v>
       </c>
       <c r="X16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031357</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>529.5587134138199</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="C17" t="n">
-        <v>529.5587134138199</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="D17" t="n">
-        <v>529.5587134138199</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="E17" t="n">
-        <v>529.5587134138199</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="F17" t="n">
-        <v>529.5587134138199</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="G17" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H17" t="n">
         <v>22.09252109618843</v>
@@ -5515,13 +5515,13 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J17" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K17" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L17" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M17" t="n">
         <v>586.3582880173956</v>
@@ -5530,7 +5530,7 @@
         <v>817.0829279823541</v>
       </c>
       <c r="O17" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P17" t="n">
         <v>1099.465256491931</v>
@@ -5539,28 +5539,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R17" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S17" t="n">
-        <v>754.2855273228791</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T17" t="n">
-        <v>529.5587134138199</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U17" t="n">
-        <v>529.5587134138199</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V17" t="n">
-        <v>529.5587134138199</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W17" t="n">
-        <v>529.5587134138199</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X17" t="n">
-        <v>529.5587134138199</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y17" t="n">
-        <v>529.5587134138199</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>196.5455503773155</v>
+        <v>405.2413647130672</v>
       </c>
       <c r="C18" t="n">
-        <v>22.09252109618843</v>
+        <v>405.2413647130672</v>
       </c>
       <c r="D18" t="n">
-        <v>22.09252109618843</v>
+        <v>256.306955051816</v>
       </c>
       <c r="E18" t="n">
-        <v>22.09252109618843</v>
+        <v>256.306955051816</v>
       </c>
       <c r="F18" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G18" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H18" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I18" t="n">
         <v>22.09252109618843</v>
       </c>
       <c r="J18" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K18" t="n">
-        <v>22.09252109618843</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L18" t="n">
-        <v>268.2479876888894</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M18" t="n">
-        <v>541.6429362542212</v>
+        <v>685.3494183114808</v>
       </c>
       <c r="N18" t="n">
-        <v>815.037884819553</v>
+        <v>958.7443668768126</v>
       </c>
       <c r="O18" t="n">
-        <v>1081.534698402837</v>
+        <v>958.7443668768126</v>
       </c>
       <c r="P18" t="n">
-        <v>1081.534698402837</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q18" t="n">
         <v>1104.626054809422</v>
@@ -5621,25 +5621,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S18" t="n">
-        <v>932.6220420606003</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T18" t="n">
-        <v>780.3726863678703</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U18" t="n">
-        <v>780.3726863678703</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V18" t="n">
-        <v>780.3726863678703</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="W18" t="n">
-        <v>780.3726863678703</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="X18" t="n">
-        <v>572.5211861623375</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="Y18" t="n">
-        <v>364.7608873973835</v>
+        <v>433.4950354468728</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C19" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D19" t="n">
-        <v>22.09252109618843</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="E19" t="n">
-        <v>22.09252109618843</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="F19" t="n">
-        <v>22.09252109618843</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G19" t="n">
         <v>22.09252109618843</v>
@@ -5679,7 +5679,7 @@
         <v>22.09252109618843</v>
       </c>
       <c r="L19" t="n">
-        <v>58.70189726492714</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M19" t="n">
         <v>107.6904745160686</v>
@@ -5712,13 +5712,13 @@
         <v>198.9927170031358</v>
       </c>
       <c r="W19" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X19" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>737.4494614202823</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="C20" t="n">
-        <v>737.4494614202823</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D20" t="n">
-        <v>737.4494614202823</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E20" t="n">
-        <v>737.4494614202823</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="F20" t="n">
-        <v>458.5034879835596</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G20" t="n">
-        <v>458.5034879835596</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H20" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I20" t="n">
         <v>22.09252109618843</v>
       </c>
       <c r="J20" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618845</v>
       </c>
       <c r="K20" t="n">
         <v>142.8373253438683</v>
@@ -5767,7 +5767,7 @@
         <v>817.0829279823541</v>
       </c>
       <c r="O20" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P20" t="n">
         <v>1099.465256491931</v>
@@ -5776,28 +5776,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R20" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S20" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T20" t="n">
-        <v>737.4494614202823</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U20" t="n">
-        <v>737.4494614202823</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V20" t="n">
-        <v>737.4494614202823</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="W20" t="n">
-        <v>737.4494614202823</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="X20" t="n">
-        <v>737.4494614202823</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="Y20" t="n">
-        <v>737.4494614202823</v>
+        <v>579.9844679696338</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>248.4271328501548</v>
+        <v>502.5235297228572</v>
       </c>
       <c r="C21" t="n">
-        <v>248.4271328501548</v>
+        <v>502.5235297228572</v>
       </c>
       <c r="D21" t="n">
-        <v>248.4271328501548</v>
+        <v>502.5235297228572</v>
       </c>
       <c r="E21" t="n">
-        <v>248.4271328501548</v>
+        <v>343.2860747174017</v>
       </c>
       <c r="F21" t="n">
-        <v>248.4271328501548</v>
+        <v>196.7515167442867</v>
       </c>
       <c r="G21" t="n">
         <v>109.772397078701</v>
@@ -5831,22 +5831,22 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J21" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K21" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L21" t="n">
-        <v>291.3393440954744</v>
+        <v>94.45522409818579</v>
       </c>
       <c r="M21" t="n">
-        <v>564.7342926608062</v>
+        <v>367.8501726635176</v>
       </c>
       <c r="N21" t="n">
-        <v>838.129241226138</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O21" t="n">
-        <v>1104.626054809422</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P21" t="n">
         <v>1104.626054809422</v>
@@ -5855,28 +5855,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R21" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S21" t="n">
-        <v>1008.180757940351</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="T21" t="n">
-        <v>1008.180757940351</v>
+        <v>730.7421420887096</v>
       </c>
       <c r="U21" t="n">
-        <v>1008.180757940351</v>
+        <v>502.5235297228572</v>
       </c>
       <c r="V21" t="n">
-        <v>773.0286497086088</v>
+        <v>502.5235297228572</v>
       </c>
       <c r="W21" t="n">
-        <v>624.4939700757557</v>
+        <v>502.5235297228572</v>
       </c>
       <c r="X21" t="n">
-        <v>416.6424698702228</v>
+        <v>502.5235297228572</v>
       </c>
       <c r="Y21" t="n">
-        <v>416.6424698702228</v>
+        <v>502.5235297228572</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C22" t="n">
-        <v>22.09252109618843</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="D22" t="n">
-        <v>22.09252109618843</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="E22" t="n">
-        <v>22.09252109618843</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="F22" t="n">
-        <v>22.09252109618843</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G22" t="n">
         <v>22.09252109618843</v>
@@ -5949,13 +5949,13 @@
         <v>198.9927170031358</v>
       </c>
       <c r="W22" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X22" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>870.0063513451025</v>
+        <v>1189.508404973932</v>
       </c>
       <c r="C23" t="n">
-        <v>870.0063513451025</v>
+        <v>1189.508404973932</v>
       </c>
       <c r="D23" t="n">
-        <v>870.0063513451025</v>
+        <v>1189.508404973932</v>
       </c>
       <c r="E23" t="n">
         <v>870.0063513451025</v>
@@ -5995,10 +5995,10 @@
         <v>328.1019626009681</v>
       </c>
       <c r="L23" t="n">
-        <v>654.356031030014</v>
+        <v>654.3560310300138</v>
       </c>
       <c r="M23" t="n">
-        <v>1033.983090059324</v>
+        <v>1033.983090059323</v>
       </c>
       <c r="N23" t="n">
         <v>1405.120914245785</v>
@@ -6007,34 +6007,34 @@
         <v>1710.38819956477</v>
       </c>
       <c r="P23" t="n">
-        <v>1933.252382068734</v>
+        <v>1933.252382068733</v>
       </c>
       <c r="Q23" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R23" t="n">
-        <v>1931.377971238403</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="S23" t="n">
-        <v>1931.377971238403</v>
+        <v>1741.783394637791</v>
       </c>
       <c r="T23" t="n">
-        <v>1710.165868918114</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="U23" t="n">
-        <v>1646.745523385036</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="V23" t="n">
-        <v>1646.745523385036</v>
+        <v>1189.508404973932</v>
       </c>
       <c r="W23" t="n">
-        <v>1646.745523385036</v>
+        <v>1189.508404973932</v>
       </c>
       <c r="X23" t="n">
-        <v>1646.745523385036</v>
+        <v>1189.508404973932</v>
       </c>
       <c r="Y23" t="n">
-        <v>1256.606191409224</v>
+        <v>1189.508404973932</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>374.1583311257923</v>
+        <v>620.8687964495164</v>
       </c>
       <c r="C24" t="n">
-        <v>199.7053018446653</v>
+        <v>446.4157671683893</v>
       </c>
       <c r="D24" t="n">
-        <v>199.7053018446653</v>
+        <v>446.4157671683893</v>
       </c>
       <c r="E24" t="n">
-        <v>40.46784683920976</v>
+        <v>287.1783121629338</v>
       </c>
       <c r="F24" t="n">
-        <v>40.46784683920976</v>
+        <v>287.1783121629338</v>
       </c>
       <c r="G24" t="n">
-        <v>40.46784683920976</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="H24" t="n">
         <v>40.46784683920976</v>
@@ -6071,49 +6071,49 @@
         <v>40.46784683920976</v>
       </c>
       <c r="K24" t="n">
-        <v>122.522487563233</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="L24" t="n">
-        <v>460.0977436204913</v>
+        <v>378.043102896468</v>
       </c>
       <c r="M24" t="n">
-        <v>906.0113666834378</v>
+        <v>823.9567259594146</v>
       </c>
       <c r="N24" t="n">
-        <v>1379.434009878921</v>
+        <v>1297.379369154898</v>
       </c>
       <c r="O24" t="n">
-        <v>1746.107559530963</v>
+        <v>1664.052918806939</v>
       </c>
       <c r="P24" t="n">
-        <v>2023.392341960488</v>
+        <v>1941.337701236465</v>
       </c>
       <c r="Q24" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R24" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S24" t="n">
-        <v>1859.367801621261</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="T24" t="n">
-        <v>1659.219456583117</v>
+        <v>1589.446511881749</v>
       </c>
       <c r="U24" t="n">
-        <v>1431.029106811396</v>
+        <v>1361.256162110028</v>
       </c>
       <c r="V24" t="n">
-        <v>1195.876998579653</v>
+        <v>1126.104053878285</v>
       </c>
       <c r="W24" t="n">
-        <v>941.6396418514514</v>
+        <v>871.8666971500834</v>
       </c>
       <c r="X24" t="n">
-        <v>733.7881416459186</v>
+        <v>871.8666971500834</v>
       </c>
       <c r="Y24" t="n">
-        <v>526.0278428809647</v>
+        <v>789.0841334695845</v>
       </c>
     </row>
     <row r="25">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>864.5398083354482</v>
+        <v>1438.520565925851</v>
       </c>
       <c r="C26" t="n">
-        <v>864.5398083354482</v>
+        <v>1438.520565925851</v>
       </c>
       <c r="D26" t="n">
-        <v>864.5398083354482</v>
+        <v>1438.520565925851</v>
       </c>
       <c r="E26" t="n">
-        <v>864.5398083354482</v>
+        <v>1203.231033430811</v>
       </c>
       <c r="F26" t="n">
         <v>792.2451286412038</v>
@@ -6232,10 +6232,10 @@
         <v>328.1019626009681</v>
       </c>
       <c r="L26" t="n">
-        <v>654.3560310300138</v>
+        <v>654.356031030014</v>
       </c>
       <c r="M26" t="n">
-        <v>1033.983090059323</v>
+        <v>1033.983090059324</v>
       </c>
       <c r="N26" t="n">
         <v>1405.120914245785</v>
@@ -6244,7 +6244,7 @@
         <v>1710.38819956477</v>
       </c>
       <c r="P26" t="n">
-        <v>1933.252382068733</v>
+        <v>1933.252382068734</v>
       </c>
       <c r="Q26" t="n">
         <v>2023.392341960488</v>
@@ -6256,22 +6256,22 @@
         <v>2023.392341960488</v>
       </c>
       <c r="T26" t="n">
-        <v>1802.180239640199</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="U26" t="n">
-        <v>1548.371350949133</v>
+        <v>1769.583453269422</v>
       </c>
       <c r="V26" t="n">
-        <v>1217.308463605562</v>
+        <v>1438.520565925851</v>
       </c>
       <c r="W26" t="n">
-        <v>864.5398083354482</v>
+        <v>1438.520565925851</v>
       </c>
       <c r="X26" t="n">
-        <v>864.5398083354482</v>
+        <v>1438.520565925851</v>
       </c>
       <c r="Y26" t="n">
-        <v>864.5398083354482</v>
+        <v>1438.520565925851</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>374.1583311257923</v>
+        <v>361.4554340934518</v>
       </c>
       <c r="C27" t="n">
-        <v>199.7053018446653</v>
+        <v>187.0024048123248</v>
       </c>
       <c r="D27" t="n">
-        <v>199.7053018446653</v>
+        <v>187.0024048123248</v>
       </c>
       <c r="E27" t="n">
-        <v>40.46784683920976</v>
+        <v>187.0024048123248</v>
       </c>
       <c r="F27" t="n">
         <v>40.46784683920976</v>
@@ -6308,22 +6308,22 @@
         <v>40.46784683920976</v>
       </c>
       <c r="K27" t="n">
-        <v>40.46784683920976</v>
+        <v>245.8568488424076</v>
       </c>
       <c r="L27" t="n">
-        <v>378.043102896468</v>
+        <v>583.4321048996659</v>
       </c>
       <c r="M27" t="n">
-        <v>823.9567259594146</v>
+        <v>1029.345727962612</v>
       </c>
       <c r="N27" t="n">
-        <v>1297.379369154898</v>
+        <v>1502.768371158096</v>
       </c>
       <c r="O27" t="n">
-        <v>1664.052918806939</v>
+        <v>1869.441920810137</v>
       </c>
       <c r="P27" t="n">
-        <v>1941.337701236465</v>
+        <v>1890.732577526585</v>
       </c>
       <c r="Q27" t="n">
         <v>2023.392341960488</v>
@@ -6338,19 +6338,19 @@
         <v>1659.219456583117</v>
       </c>
       <c r="U27" t="n">
-        <v>1431.029106811395</v>
+        <v>1431.029106811396</v>
       </c>
       <c r="V27" t="n">
         <v>1195.876998579653</v>
       </c>
       <c r="W27" t="n">
-        <v>957.9854671163471</v>
+        <v>941.6396418514514</v>
       </c>
       <c r="X27" t="n">
-        <v>750.1339669108143</v>
+        <v>733.7881416459186</v>
       </c>
       <c r="Y27" t="n">
-        <v>542.3736681458604</v>
+        <v>526.0278428809647</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>498.0103482609705</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="C28" t="n">
-        <v>485.387527331849</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="D28" t="n">
-        <v>335.2708879195133</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E28" t="n">
-        <v>187.3577943371201</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F28" t="n">
         <v>40.46784683920976</v>
@@ -6423,13 +6423,13 @@
         <v>498.0103482609705</v>
       </c>
       <c r="W28" t="n">
-        <v>498.0103482609705</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0103482609705</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="Y28" t="n">
-        <v>498.0103482609705</v>
+        <v>208.5931782240099</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1246.653169920555</v>
+        <v>1228.272049951853</v>
       </c>
       <c r="C29" t="n">
-        <v>1246.653169920555</v>
+        <v>1228.272049951853</v>
       </c>
       <c r="D29" t="n">
-        <v>1246.653169920555</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="E29" t="n">
-        <v>860.8649173223102</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="F29" t="n">
-        <v>449.8790125327027</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="G29" t="n">
         <v>40.46784683920976</v>
@@ -6466,13 +6466,13 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K29" t="n">
-        <v>328.1019626009681</v>
+        <v>328.1019626009682</v>
       </c>
       <c r="L29" t="n">
         <v>654.356031030014</v>
       </c>
       <c r="M29" t="n">
-        <v>1033.983090059324</v>
+        <v>1033.983090059323</v>
       </c>
       <c r="N29" t="n">
         <v>1405.120914245785</v>
@@ -6481,7 +6481,7 @@
         <v>1710.38819956477</v>
       </c>
       <c r="P29" t="n">
-        <v>1933.252382068734</v>
+        <v>1933.252382068733</v>
       </c>
       <c r="Q29" t="n">
         <v>2023.392341960488</v>
@@ -6499,16 +6499,16 @@
         <v>2023.392341960488</v>
       </c>
       <c r="V29" t="n">
-        <v>2023.392341960488</v>
+        <v>1692.329454616917</v>
       </c>
       <c r="W29" t="n">
-        <v>2023.392341960488</v>
+        <v>1339.560799346803</v>
       </c>
       <c r="X29" t="n">
-        <v>2023.392341960488</v>
+        <v>1339.560799346803</v>
       </c>
       <c r="Y29" t="n">
-        <v>1633.253009984676</v>
+        <v>1228.272049951853</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>374.1583311257923</v>
+        <v>620.2794385188236</v>
       </c>
       <c r="C30" t="n">
-        <v>199.7053018446653</v>
+        <v>445.8264092376966</v>
       </c>
       <c r="D30" t="n">
-        <v>199.7053018446653</v>
+        <v>445.8264092376966</v>
       </c>
       <c r="E30" t="n">
-        <v>40.46784683920976</v>
+        <v>445.8264092376966</v>
       </c>
       <c r="F30" t="n">
-        <v>40.46784683920976</v>
+        <v>299.2918512645815</v>
       </c>
       <c r="G30" t="n">
-        <v>40.46784683920976</v>
+        <v>161.0667069239157</v>
       </c>
       <c r="H30" t="n">
-        <v>40.46784683920976</v>
+        <v>113.3569652266061</v>
       </c>
       <c r="I30" t="n">
         <v>40.46784683920976</v>
@@ -6545,49 +6545,49 @@
         <v>40.46784683920976</v>
       </c>
       <c r="K30" t="n">
-        <v>122.522487563233</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="L30" t="n">
-        <v>460.0977436204913</v>
+        <v>378.043102896468</v>
       </c>
       <c r="M30" t="n">
-        <v>906.0113666834378</v>
+        <v>823.9567259594146</v>
       </c>
       <c r="N30" t="n">
-        <v>1379.434009878921</v>
+        <v>1297.379369154898</v>
       </c>
       <c r="O30" t="n">
-        <v>1746.107559530963</v>
+        <v>1664.052918806939</v>
       </c>
       <c r="P30" t="n">
-        <v>2023.392341960488</v>
+        <v>1941.337701236465</v>
       </c>
       <c r="Q30" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R30" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S30" t="n">
-        <v>1875.713626886157</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="T30" t="n">
-        <v>1675.565281848013</v>
+        <v>1753.471052220976</v>
       </c>
       <c r="U30" t="n">
-        <v>1447.374932076291</v>
+        <v>1525.280702449254</v>
       </c>
       <c r="V30" t="n">
-        <v>1212.222823844549</v>
+        <v>1290.128594217512</v>
       </c>
       <c r="W30" t="n">
-        <v>957.9854671163471</v>
+        <v>1035.89123748931</v>
       </c>
       <c r="X30" t="n">
-        <v>750.1339669108143</v>
+        <v>828.0397372837774</v>
       </c>
       <c r="Y30" t="n">
-        <v>542.3736681458604</v>
+        <v>620.2794385188236</v>
       </c>
     </row>
     <row r="31">
@@ -6654,10 +6654,10 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U31" t="n">
-        <v>329.8850168761704</v>
+        <v>295.1523350450966</v>
       </c>
       <c r="V31" t="n">
-        <v>329.8850168761704</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="W31" t="n">
         <v>40.46784683920976</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>844.8086991537391</v>
+        <v>1170.46668631277</v>
       </c>
       <c r="C32" t="n">
-        <v>844.8086991537391</v>
+        <v>1170.46668631277</v>
       </c>
       <c r="D32" t="n">
-        <v>844.8086991537391</v>
+        <v>1170.46668631277</v>
       </c>
       <c r="E32" t="n">
-        <v>459.0204465554949</v>
+        <v>784.6784337145261</v>
       </c>
       <c r="F32" t="n">
-        <v>459.0204465554949</v>
+        <v>373.6925289249186</v>
       </c>
       <c r="G32" t="n">
-        <v>40.46784683920976</v>
+        <v>373.6925289249186</v>
       </c>
       <c r="H32" t="n">
         <v>40.46784683920976</v>
@@ -6703,10 +6703,10 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K32" t="n">
-        <v>328.1019626009682</v>
+        <v>328.101962600968</v>
       </c>
       <c r="L32" t="n">
-        <v>654.356031030014</v>
+        <v>654.3560310300138</v>
       </c>
       <c r="M32" t="n">
         <v>1033.983090059323</v>
@@ -6739,13 +6739,13 @@
         <v>1931.377971238402</v>
       </c>
       <c r="W32" t="n">
-        <v>1931.377971238402</v>
+        <v>1578.609315968288</v>
       </c>
       <c r="X32" t="n">
-        <v>1621.547871193673</v>
+        <v>1560.606018288582</v>
       </c>
       <c r="Y32" t="n">
-        <v>1231.408539217861</v>
+        <v>1170.46668631277</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>374.1583311257923</v>
+        <v>680.2544512704769</v>
       </c>
       <c r="C33" t="n">
-        <v>199.7053018446653</v>
+        <v>680.2544512704769</v>
       </c>
       <c r="D33" t="n">
-        <v>199.7053018446653</v>
+        <v>592.9503251415044</v>
       </c>
       <c r="E33" t="n">
-        <v>40.46784683920976</v>
+        <v>433.7128701360489</v>
       </c>
       <c r="F33" t="n">
-        <v>40.46784683920976</v>
+        <v>287.1783121629338</v>
       </c>
       <c r="G33" t="n">
-        <v>40.46784683920976</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="H33" t="n">
         <v>40.46784683920976</v>
@@ -6806,25 +6806,25 @@
         <v>1953.61939725912</v>
       </c>
       <c r="S33" t="n">
-        <v>1789.594856919893</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="T33" t="n">
-        <v>1589.446511881749</v>
+        <v>1753.471052220976</v>
       </c>
       <c r="U33" t="n">
-        <v>1447.374932076291</v>
+        <v>1753.471052220976</v>
       </c>
       <c r="V33" t="n">
-        <v>1212.222823844549</v>
+        <v>1518.318943989233</v>
       </c>
       <c r="W33" t="n">
-        <v>957.9854671163471</v>
+        <v>1264.081587261032</v>
       </c>
       <c r="X33" t="n">
-        <v>750.1339669108143</v>
+        <v>1056.230087055499</v>
       </c>
       <c r="Y33" t="n">
-        <v>542.3736681458604</v>
+        <v>848.469788290545</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>269.5736838865074</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="C34" t="n">
-        <v>269.5736838865074</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="D34" t="n">
-        <v>269.5736838865074</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="E34" t="n">
-        <v>121.6605903041142</v>
+        <v>187.3577943371201</v>
       </c>
       <c r="F34" t="n">
-        <v>121.6605903041142</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G34" t="n">
         <v>40.46784683920976</v>
@@ -6888,22 +6888,22 @@
         <v>498.0103482609705</v>
       </c>
       <c r="T34" t="n">
-        <v>269.5736838865074</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="U34" t="n">
-        <v>269.5736838865074</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="V34" t="n">
-        <v>269.5736838865074</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="W34" t="n">
-        <v>269.5736838865074</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="X34" t="n">
-        <v>269.5736838865074</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="Y34" t="n">
-        <v>269.5736838865074</v>
+        <v>208.5931782240099</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1238.968868285514</v>
+        <v>1130.431960341691</v>
       </c>
       <c r="C35" t="n">
-        <v>870.0063513451025</v>
+        <v>761.4694434012795</v>
       </c>
       <c r="D35" t="n">
-        <v>870.0063513451025</v>
+        <v>761.4694434012795</v>
       </c>
       <c r="E35" t="n">
-        <v>870.0063513451025</v>
+        <v>761.4694434012795</v>
       </c>
       <c r="F35" t="n">
-        <v>459.0204465554949</v>
+        <v>761.4694434012795</v>
       </c>
       <c r="G35" t="n">
-        <v>40.46784683920976</v>
+        <v>342.9168436849943</v>
       </c>
       <c r="H35" t="n">
         <v>40.46784683920976</v>
@@ -6961,28 +6961,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R35" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="S35" t="n">
-        <v>2023.392341960488</v>
+        <v>1741.783394637791</v>
       </c>
       <c r="T35" t="n">
-        <v>2002.573958522406</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="U35" t="n">
-        <v>2002.573958522406</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="V35" t="n">
-        <v>2002.573958522406</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="W35" t="n">
-        <v>2002.573958522406</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="X35" t="n">
-        <v>1629.108200261326</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="Y35" t="n">
-        <v>1238.968868285514</v>
+        <v>1130.431960341691</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>989.2268824712791</v>
+        <v>726.1761879191088</v>
       </c>
       <c r="C36" t="n">
-        <v>814.7738531901521</v>
+        <v>726.1761879191088</v>
       </c>
       <c r="D36" t="n">
-        <v>665.8394435289008</v>
+        <v>577.2417782578575</v>
       </c>
       <c r="E36" t="n">
-        <v>506.6019885234452</v>
+        <v>418.004323252402</v>
       </c>
       <c r="F36" t="n">
-        <v>360.0674305503302</v>
+        <v>271.469765279287</v>
       </c>
       <c r="G36" t="n">
-        <v>221.8422862096645</v>
+        <v>133.2446209386212</v>
       </c>
       <c r="H36" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I36" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J36" t="n">
-        <v>86.55375581100979</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K36" t="n">
-        <v>86.55375581100979</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="L36" t="n">
-        <v>424.1290118682681</v>
+        <v>378.043102896468</v>
       </c>
       <c r="M36" t="n">
-        <v>870.0426349312146</v>
+        <v>823.9567259594146</v>
       </c>
       <c r="N36" t="n">
-        <v>1343.465278126698</v>
+        <v>1297.379369154898</v>
       </c>
       <c r="O36" t="n">
-        <v>1710.138827778739</v>
+        <v>1664.052918806939</v>
       </c>
       <c r="P36" t="n">
-        <v>1890.732577526585</v>
+        <v>1941.337701236465</v>
       </c>
       <c r="Q36" t="n">
         <v>2023.392341960488</v>
@@ -7049,19 +7049,19 @@
         <v>1859.367801621261</v>
       </c>
       <c r="U36" t="n">
-        <v>1859.367801621261</v>
+        <v>1631.17745184954</v>
       </c>
       <c r="V36" t="n">
-        <v>1827.291375190035</v>
+        <v>1396.025343617797</v>
       </c>
       <c r="W36" t="n">
-        <v>1573.054018461834</v>
+        <v>1141.787986889595</v>
       </c>
       <c r="X36" t="n">
-        <v>1365.202518256301</v>
+        <v>933.9364866840626</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.442219491347</v>
+        <v>726.1761879191088</v>
       </c>
     </row>
     <row r="37">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.46784683920976</v>
+        <v>209.4040297671167</v>
       </c>
       <c r="C37" t="n">
         <v>40.46784683920976</v>
@@ -7128,19 +7128,19 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U37" t="n">
-        <v>329.8850168761704</v>
+        <v>209.4040297671167</v>
       </c>
       <c r="V37" t="n">
-        <v>329.8850168761704</v>
+        <v>209.4040297671167</v>
       </c>
       <c r="W37" t="n">
-        <v>40.46784683920976</v>
+        <v>209.4040297671167</v>
       </c>
       <c r="X37" t="n">
-        <v>40.46784683920976</v>
+        <v>209.4040297671167</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.46784683920976</v>
+        <v>209.4040297671167</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1259.817007769474</v>
+        <v>1167.802637047389</v>
       </c>
       <c r="C38" t="n">
-        <v>1259.817007769474</v>
+        <v>1167.802637047389</v>
       </c>
       <c r="D38" t="n">
-        <v>901.5513091627238</v>
+        <v>1046.171716066946</v>
       </c>
       <c r="E38" t="n">
-        <v>901.5513091627238</v>
+        <v>1046.171716066946</v>
       </c>
       <c r="F38" t="n">
-        <v>490.5654043731162</v>
+        <v>635.1858112773382</v>
       </c>
       <c r="G38" t="n">
-        <v>72.01280465683107</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="H38" t="n">
-        <v>40.46784683920976</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="I38" t="n">
         <v>40.46784683920976</v>
@@ -7198,28 +7198,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R38" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="S38" t="n">
-        <v>1833.797765359877</v>
+        <v>1741.783394637791</v>
       </c>
       <c r="T38" t="n">
-        <v>1612.585663039588</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="U38" t="n">
-        <v>1612.585663039588</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="V38" t="n">
-        <v>1612.585663039588</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="W38" t="n">
-        <v>1259.817007769474</v>
+        <v>1167.802637047389</v>
       </c>
       <c r="X38" t="n">
-        <v>1259.817007769474</v>
+        <v>1167.802637047389</v>
       </c>
       <c r="Y38" t="n">
-        <v>1259.817007769474</v>
+        <v>1167.802637047389</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>565.6640060664295</v>
+        <v>821.1549638643608</v>
       </c>
       <c r="C39" t="n">
-        <v>391.2109767853025</v>
+        <v>646.7019345832338</v>
       </c>
       <c r="D39" t="n">
-        <v>242.2765671240512</v>
+        <v>497.7675249219825</v>
       </c>
       <c r="E39" t="n">
-        <v>242.2765671240512</v>
+        <v>338.530069916527</v>
       </c>
       <c r="F39" t="n">
-        <v>95.74200915093618</v>
+        <v>191.995511943412</v>
       </c>
       <c r="G39" t="n">
-        <v>40.46784683920976</v>
+        <v>53.77036760274621</v>
       </c>
       <c r="H39" t="n">
         <v>40.46784683920976</v>
@@ -7256,22 +7256,22 @@
         <v>40.46784683920976</v>
       </c>
       <c r="K39" t="n">
-        <v>122.522487563233</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="L39" t="n">
-        <v>460.0977436204913</v>
+        <v>378.043102896468</v>
       </c>
       <c r="M39" t="n">
-        <v>906.0113666834378</v>
+        <v>823.9567259594146</v>
       </c>
       <c r="N39" t="n">
-        <v>1379.434009878921</v>
+        <v>1297.379369154898</v>
       </c>
       <c r="O39" t="n">
-        <v>1746.107559530963</v>
+        <v>1664.052918806939</v>
       </c>
       <c r="P39" t="n">
-        <v>2023.392341960488</v>
+        <v>1941.337701236465</v>
       </c>
       <c r="Q39" t="n">
         <v>2023.392341960488</v>
@@ -7286,19 +7286,19 @@
         <v>1659.219456583117</v>
       </c>
       <c r="U39" t="n">
-        <v>1431.029106811396</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="V39" t="n">
-        <v>1195.876998579653</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="W39" t="n">
-        <v>941.6396418514514</v>
+        <v>1404.982099854916</v>
       </c>
       <c r="X39" t="n">
-        <v>941.6396418514514</v>
+        <v>1197.130599649383</v>
       </c>
       <c r="Y39" t="n">
-        <v>733.8793430864976</v>
+        <v>989.3703008844288</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="C40" t="n">
-        <v>485.387527331849</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="D40" t="n">
-        <v>335.2708879195133</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E40" t="n">
-        <v>187.3577943371201</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F40" t="n">
         <v>40.46784683920976</v>
@@ -7368,16 +7368,16 @@
         <v>498.0103482609705</v>
       </c>
       <c r="V40" t="n">
-        <v>498.0103482609705</v>
+        <v>243.3258600550837</v>
       </c>
       <c r="W40" t="n">
-        <v>498.0103482609705</v>
+        <v>243.3258600550837</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="Y40" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920976</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1178.033381239448</v>
+        <v>820.416268569229</v>
       </c>
       <c r="C41" t="n">
-        <v>1178.033381239448</v>
+        <v>451.4537516288173</v>
       </c>
       <c r="D41" t="n">
-        <v>1178.033381239448</v>
+        <v>451.4537516288173</v>
       </c>
       <c r="E41" t="n">
-        <v>792.2451286412038</v>
+        <v>451.4537516288173</v>
       </c>
       <c r="F41" t="n">
-        <v>792.2451286412038</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G41" t="n">
-        <v>373.6925289249186</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H41" t="n">
         <v>40.46784683920976</v>
@@ -7435,28 +7435,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R41" t="n">
-        <v>2023.392341960488</v>
+        <v>1936.790014076235</v>
       </c>
       <c r="S41" t="n">
-        <v>2023.392341960488</v>
+        <v>1936.790014076235</v>
       </c>
       <c r="T41" t="n">
-        <v>1802.180239640199</v>
+        <v>1936.790014076235</v>
       </c>
       <c r="U41" t="n">
-        <v>1548.371350949133</v>
+        <v>1936.790014076235</v>
       </c>
       <c r="V41" t="n">
-        <v>1217.308463605563</v>
+        <v>1936.790014076235</v>
       </c>
       <c r="W41" t="n">
-        <v>1217.308463605563</v>
+        <v>1584.021358806121</v>
       </c>
       <c r="X41" t="n">
-        <v>1178.033381239448</v>
+        <v>1210.555600545041</v>
       </c>
       <c r="Y41" t="n">
-        <v>1178.033381239448</v>
+        <v>820.416268569229</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>363.855285781588</v>
+        <v>778.1126197432169</v>
       </c>
       <c r="C42" t="n">
-        <v>189.402256500461</v>
+        <v>603.6595904620899</v>
       </c>
       <c r="D42" t="n">
-        <v>40.46784683920976</v>
+        <v>454.7251808008386</v>
       </c>
       <c r="E42" t="n">
-        <v>40.46784683920976</v>
+        <v>295.4877257953831</v>
       </c>
       <c r="F42" t="n">
-        <v>40.46784683920976</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="G42" t="n">
-        <v>40.46784683920976</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="H42" t="n">
         <v>40.46784683920976</v>
@@ -7490,25 +7490,25 @@
         <v>40.46784683920976</v>
       </c>
       <c r="J42" t="n">
-        <v>40.46784683920976</v>
+        <v>86.55375581100979</v>
       </c>
       <c r="K42" t="n">
-        <v>122.522487563233</v>
+        <v>291.9427578142076</v>
       </c>
       <c r="L42" t="n">
-        <v>460.0977436204913</v>
+        <v>629.5180138714659</v>
       </c>
       <c r="M42" t="n">
-        <v>906.0113666834378</v>
+        <v>1075.431636934412</v>
       </c>
       <c r="N42" t="n">
-        <v>1379.434009878921</v>
+        <v>1548.854280129896</v>
       </c>
       <c r="O42" t="n">
-        <v>1746.107559530963</v>
+        <v>1613.447795097059</v>
       </c>
       <c r="P42" t="n">
-        <v>2023.392341960488</v>
+        <v>1890.732577526585</v>
       </c>
       <c r="Q42" t="n">
         <v>2023.392341960488</v>
@@ -7517,25 +7517,25 @@
         <v>2023.392341960488</v>
       </c>
       <c r="S42" t="n">
-        <v>1859.367801621261</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="T42" t="n">
-        <v>1659.219456583117</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="U42" t="n">
-        <v>1437.071886732087</v>
+        <v>1795.201992188767</v>
       </c>
       <c r="V42" t="n">
-        <v>1201.919778500344</v>
+        <v>1560.049883957024</v>
       </c>
       <c r="W42" t="n">
-        <v>947.6824217721428</v>
+        <v>1305.812527228822</v>
       </c>
       <c r="X42" t="n">
-        <v>739.83092156661</v>
+        <v>1097.961027023289</v>
       </c>
       <c r="Y42" t="n">
-        <v>532.0706228016561</v>
+        <v>890.2007282583356</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>279.1191793524195</v>
+        <v>88.3723325327135</v>
       </c>
       <c r="C43" t="n">
-        <v>188.3809404216029</v>
+        <v>88.3723325327135</v>
       </c>
       <c r="D43" t="n">
-        <v>188.3809404216029</v>
+        <v>88.3723325327135</v>
       </c>
       <c r="E43" t="n">
-        <v>40.46784683920976</v>
+        <v>88.3723325327135</v>
       </c>
       <c r="F43" t="n">
-        <v>40.46784683920976</v>
+        <v>88.3723325327135</v>
       </c>
       <c r="G43" t="n">
         <v>40.46784683920976</v>
@@ -7596,25 +7596,25 @@
         <v>498.0103482609705</v>
       </c>
       <c r="S43" t="n">
-        <v>279.1191793524195</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="T43" t="n">
-        <v>279.1191793524195</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="U43" t="n">
-        <v>279.1191793524195</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="V43" t="n">
-        <v>279.1191793524195</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="W43" t="n">
-        <v>279.1191793524195</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="X43" t="n">
-        <v>279.1191793524195</v>
+        <v>270.0207973629532</v>
       </c>
       <c r="Y43" t="n">
-        <v>279.1191793524195</v>
+        <v>270.0207973629532</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1326.676191969798</v>
+        <v>1203.231033430811</v>
       </c>
       <c r="C44" t="n">
-        <v>1326.676191969798</v>
+        <v>1203.231033430811</v>
       </c>
       <c r="D44" t="n">
-        <v>968.4104933630471</v>
+        <v>1203.231033430811</v>
       </c>
       <c r="E44" t="n">
-        <v>968.4104933630471</v>
+        <v>1203.231033430811</v>
       </c>
       <c r="F44" t="n">
-        <v>968.4104933630471</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="G44" t="n">
-        <v>549.8578936467619</v>
+        <v>373.6925289249186</v>
       </c>
       <c r="H44" t="n">
-        <v>216.6332115610531</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I44" t="n">
         <v>40.46784683920976</v>
@@ -7678,22 +7678,22 @@
         <v>1833.797765359877</v>
       </c>
       <c r="T44" t="n">
-        <v>1612.585663039588</v>
+        <v>1833.797765359877</v>
       </c>
       <c r="U44" t="n">
-        <v>1358.776774348522</v>
+        <v>1593.370365406623</v>
       </c>
       <c r="V44" t="n">
-        <v>1358.776774348522</v>
+        <v>1593.370365406623</v>
       </c>
       <c r="W44" t="n">
-        <v>1326.676191969798</v>
+        <v>1593.370365406623</v>
       </c>
       <c r="X44" t="n">
-        <v>1326.676191969798</v>
+        <v>1593.370365406623</v>
       </c>
       <c r="Y44" t="n">
-        <v>1326.676191969798</v>
+        <v>1203.231033430811</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>731.0431695968041</v>
+        <v>288.0395611595286</v>
       </c>
       <c r="C45" t="n">
-        <v>731.0431695968041</v>
+        <v>113.5865318784016</v>
       </c>
       <c r="D45" t="n">
-        <v>582.1087599355528</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E45" t="n">
-        <v>422.8713049300973</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F45" t="n">
-        <v>276.3367469569823</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G45" t="n">
-        <v>138.1116026163166</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H45" t="n">
         <v>40.46784683920976</v>
@@ -7727,25 +7727,25 @@
         <v>40.46784683920976</v>
       </c>
       <c r="J45" t="n">
-        <v>86.55375581100978</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K45" t="n">
-        <v>86.55375581100978</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="L45" t="n">
-        <v>424.1290118682681</v>
+        <v>378.043102896468</v>
       </c>
       <c r="M45" t="n">
-        <v>870.0426349312146</v>
+        <v>823.9567259594146</v>
       </c>
       <c r="N45" t="n">
-        <v>1343.465278126698</v>
+        <v>1297.379369154898</v>
       </c>
       <c r="O45" t="n">
-        <v>1710.138827778739</v>
+        <v>1664.052918806939</v>
       </c>
       <c r="P45" t="n">
-        <v>1987.423610208265</v>
+        <v>1941.337701236465</v>
       </c>
       <c r="Q45" t="n">
         <v>2023.392341960488</v>
@@ -7763,16 +7763,16 @@
         <v>1361.256162110028</v>
       </c>
       <c r="V45" t="n">
-        <v>1361.256162110028</v>
+        <v>1126.104053878285</v>
       </c>
       <c r="W45" t="n">
-        <v>1107.018805381826</v>
+        <v>871.8666971500834</v>
       </c>
       <c r="X45" t="n">
-        <v>1107.018805381826</v>
+        <v>664.0151969445506</v>
       </c>
       <c r="Y45" t="n">
-        <v>899.2585066168722</v>
+        <v>456.2548981795966</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>88.37233253271344</v>
+        <v>187.3577943371201</v>
       </c>
       <c r="C46" t="n">
-        <v>88.37233253271344</v>
+        <v>187.3577943371201</v>
       </c>
       <c r="D46" t="n">
-        <v>88.37233253271344</v>
+        <v>187.3577943371201</v>
       </c>
       <c r="E46" t="n">
-        <v>88.37233253271344</v>
+        <v>187.3577943371201</v>
       </c>
       <c r="F46" t="n">
-        <v>88.37233253271344</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G46" t="n">
-        <v>88.37233253271344</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H46" t="n">
-        <v>88.37233253271344</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I46" t="n">
         <v>40.46784683920976</v>
@@ -7836,22 +7836,22 @@
         <v>498.0103482609705</v>
       </c>
       <c r="T46" t="n">
-        <v>498.0103482609705</v>
+        <v>369.0062591673598</v>
       </c>
       <c r="U46" t="n">
-        <v>498.0103482609705</v>
+        <v>369.0062591673598</v>
       </c>
       <c r="V46" t="n">
-        <v>498.0103482609705</v>
+        <v>369.0062591673598</v>
       </c>
       <c r="W46" t="n">
-        <v>498.0103482609705</v>
+        <v>369.0062591673598</v>
       </c>
       <c r="X46" t="n">
-        <v>270.0207973629531</v>
+        <v>369.0062591673598</v>
       </c>
       <c r="Y46" t="n">
-        <v>270.0207973629531</v>
+        <v>369.0062591673598</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M6" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8315,7 +8315,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>369.031319612638</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>142.631776759372</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>239.6115747153265</v>
       </c>
       <c r="M12" t="n">
         <v>399.2039605324505</v>
@@ -8783,13 +8783,13 @@
         <v>387.9064735273547</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P12" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,7 +9011,7 @@
         <v>125.6774978810002</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>195.2920992522434</v>
       </c>
       <c r="M15" t="n">
         <v>399.2039605324505</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>153.6907277247511</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>399.2039605324504</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N18" t="n">
         <v>387.9064735273546</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P18" t="n">
-        <v>119.5899201578276</v>
+        <v>187.2339980518046</v>
       </c>
       <c r="Q18" t="n">
-        <v>153.6907277247511</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L21" t="n">
-        <v>249.0068850502525</v>
+        <v>195.2920992522434</v>
       </c>
       <c r="M21" t="n">
         <v>399.2039605324505</v>
@@ -9497,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>130.3661252938572</v>
@@ -9719,7 +9719,7 @@
         <v>79.53961213657041</v>
       </c>
       <c r="K24" t="n">
-        <v>139.8850741043215</v>
+        <v>57.00159862551008</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>76.0775256814014</v>
+        <v>158.9610011602124</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>79.53961213657041</v>
       </c>
       <c r="K27" t="n">
-        <v>57.00159862551008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>59.88284367723215</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.9610011602124</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>79.53961213657041</v>
       </c>
       <c r="K30" t="n">
-        <v>139.8850741043215</v>
+        <v>57.00159862551008</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>76.0775256814014</v>
+        <v>158.9610011602124</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>79.53961213657041</v>
       </c>
       <c r="K36" t="n">
         <v>57.00159862551008</v>
@@ -10682,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>220.7950588604625</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>158.9610011602126</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>79.53961213657041</v>
       </c>
       <c r="K39" t="n">
-        <v>139.8850741043215</v>
+        <v>57.00159862551008</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.0775256814014</v>
+        <v>158.9610011602126</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>79.53961213657041</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>139.8850741043215</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11153,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>88.73097111018598</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.0775256814014</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>79.53961213657041</v>
       </c>
       <c r="K45" t="n">
         <v>57.00159862551008</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.4095779563743</v>
+        <v>158.9610011602124</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22558,13 +22558,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22594,22 +22594,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>136.9555830739709</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22676,13 +22676,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22770,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>344.4597780394191</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -22846,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22922,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.79365132610135</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22998,13 +22998,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>301.8181508768923</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,19 +23099,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>125.9137940316683</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23272,7 +23272,7 @@
         <v>130.719532039356</v>
       </c>
       <c r="G11" t="n">
-        <v>139.005434824964</v>
+        <v>259.2716050111774</v>
       </c>
       <c r="H11" t="n">
         <v>338.0329468943008</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.5984649426426</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3343897888113</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>59.52527572608643</v>
+        <v>50.84750904839437</v>
       </c>
       <c r="T12" t="n">
         <v>199.8611009721718</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>145.666916332781</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>135.1499631682117</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J13" t="n">
         <v>88.89425643449839</v>
@@ -23515,7 +23515,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I14" t="n">
-        <v>113.9443374426223</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>110.0814249536982</v>
+        <v>160.0029219639539</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23636,13 +23636,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>87.59438263342824</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>30.35678561237123</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23658,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>119.9182417169037</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>50.57846144115931</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G17" t="n">
-        <v>188.9269318352198</v>
+        <v>171.9232912582848</v>
       </c>
       <c r="H17" t="n">
-        <v>61.87643319194541</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I17" t="n">
         <v>205.0481221176458</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U17" t="n">
         <v>251.3343897888113</v>
@@ -23810,19 +23810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.5620496233998</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.2681884137393</v>
@@ -23831,7 +23831,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I18" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,22 +23861,22 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T18" t="n">
-        <v>49.13423883636918</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>141.4121053356932</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>161.6656840978772</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F20" t="n">
         <v>130.719532039356</v>
@@ -23986,10 +23986,10 @@
         <v>415.1619485273195</v>
       </c>
       <c r="H20" t="n">
-        <v>111.0342117934492</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S20" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U20" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>84.51360120110039</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24056,13 +24056,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>51.15885994480944</v>
       </c>
       <c r="H21" t="n">
         <v>111.5079271034444</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S21" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>104.645650324395</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>160.0434534161087</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>161.6656840978772</v>
@@ -24153,7 +24153,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K22" t="n">
-        <v>14.93225064571201</v>
+        <v>14.93225064571202</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>80.87383288310646</v>
+        <v>80.87383288310647</v>
       </c>
       <c r="R22" t="n">
         <v>174.4537986637794</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>111.3918043887132</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>65.62333697972053</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>188.4846577264082</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>16.18236701224666</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24299,10 +24299,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>72.16022720352242</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>123.7279577336104</v>
       </c>
     </row>
     <row r="25">
@@ -24451,10 +24451,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>148.9937329021722</v>
       </c>
       <c r="F26" t="n">
-        <v>335.3043128444094</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>187.6986308346051</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>3.606498950229565</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24530,10 +24530,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>136.8428928972591</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>16.182367012247</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>154.7502283787975</v>
+        <v>0.8027430276756604</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.571272790944</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>9.050019682564312</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>329.8924352648517</v>
@@ -24739,16 +24739,16 @@
         <v>251.2707998041555</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>276.0620767550529</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24767,19 +24767,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>107.4004677732277</v>
+        <v>60.16782349289122</v>
       </c>
       <c r="I30" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>16.18236701224671</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U31" t="n">
-        <v>119.8520582000379</v>
+        <v>85.4667031872749</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H32" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>174.4037110746249</v>
@@ -24979,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>62.99930163418657</v>
+        <v>351.90783597556</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -24998,22 +24998,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>61.013980696956</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>72.16022720352242</v>
@@ -25046,13 +25046,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>85.25758226660113</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>125.4109325985482</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>87.19045676068859</v>
+        <v>167.571272790944</v>
       </c>
       <c r="H34" t="n">
         <v>158.4955995708086</v>
@@ -25128,7 +25128,7 @@
         <v>216.7022572194656</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>226.1522977307185</v>
       </c>
       <c r="U34" t="n">
         <v>286.2961362709901</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>329.8924352648517</v>
+        <v>30.46792838752503</v>
       </c>
       <c r="I35" t="n">
         <v>174.4037110746249</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>91.09422701486457</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>198.3897816933842</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2707998041555</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>15.55146141481036</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25289,10 +25289,10 @@
         <v>198.1468615877626</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9084462740043</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>201.0449249825117</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25368,13 +25368,13 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U37" t="n">
-        <v>119.8520582000379</v>
+        <v>0.5758809620747343</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>234.2684298500443</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>298.6629270254066</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I38" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>91.09422701486457</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25478,16 +25478,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>82.12147220864995</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>107.4004677732277</v>
+        <v>94.23097221732664</v>
       </c>
       <c r="I39" t="n">
         <v>72.16022720352242</v>
@@ -25526,16 +25526,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>154.7502283787975</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.571272790944</v>
@@ -25608,13 +25608,13 @@
         <v>286.2961362709901</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>24.88022230532201</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,22 +25630,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I41" t="n">
         <v>174.4037110746249</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>91.09422701486457</v>
+        <v>5.357922409453778</v>
       </c>
       <c r="S41" t="n">
         <v>187.6986308346051</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>330.8487691360155</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>55.5659562198998</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25715,16 +25715,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>136.8428928972591</v>
       </c>
       <c r="H42" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>72.16022720352242</v>
@@ -25757,13 +25757,13 @@
         <v>69.07521525435415</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U42" t="n">
-        <v>5.982352121484553</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>77.41596455711942</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.571272790944</v>
+        <v>120.1458319543753</v>
       </c>
       <c r="H43" t="n">
         <v>158.4955995708086</v>
@@ -25836,7 +25836,7 @@
         <v>158.4218578960072</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>216.7022572194656</v>
       </c>
       <c r="T43" t="n">
         <v>226.1522977307185</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25870,13 +25870,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>13.24767385043444</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>317.4613921624759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25946,22 +25946,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>75.05756737583884</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H45" t="n">
-        <v>10.73314955389199</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I45" t="n">
         <v>72.16022720352242</v>
@@ -26003,13 +26003,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.571272790944</v>
@@ -26043,7 +26043,7 @@
         <v>158.4955995708086</v>
       </c>
       <c r="I46" t="n">
-        <v>95.40331295124668</v>
+        <v>142.8287537878153</v>
       </c>
       <c r="J46" t="n">
         <v>63.68592579338139</v>
@@ -26076,7 +26076,7 @@
         <v>216.7022572194656</v>
       </c>
       <c r="T46" t="n">
-        <v>226.1522977307185</v>
+        <v>98.43824952804398</v>
       </c>
       <c r="U46" t="n">
         <v>286.2961362709901</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>432077.2935265364</v>
+        <v>432077.2935265363</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>432077.2935265364</v>
+        <v>432077.2935265363</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>460206.3301802928</v>
+        <v>460206.3301802927</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>460206.3301802928</v>
+        <v>460206.3301802927</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>460206.3301802927</v>
+        <v>460206.3301802928</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>625205.3701001765</v>
+        <v>625205.3701001764</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>625205.3701001764</v>
+        <v>625205.3701001763</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>625205.3701001765</v>
+        <v>625205.3701001764</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>625205.3701001764</v>
+        <v>625205.3701001763</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>157852.6389047658</v>
       </c>
       <c r="C2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="D2" t="n">
         <v>157852.6389047658</v>
@@ -26325,16 +26325,16 @@
         <v>168322.7414503684</v>
       </c>
       <c r="F2" t="n">
-        <v>168322.7414503684</v>
+        <v>168322.7414503685</v>
       </c>
       <c r="G2" t="n">
         <v>168322.7414503684</v>
       </c>
       <c r="H2" t="n">
-        <v>168322.7414503685</v>
+        <v>168322.7414503684</v>
       </c>
       <c r="I2" t="n">
-        <v>229692.9736993706</v>
+        <v>229692.9736993707</v>
       </c>
       <c r="J2" t="n">
         <v>229692.9736993707</v>
@@ -26346,10 +26346,10 @@
         <v>229692.9736993707</v>
       </c>
       <c r="M2" t="n">
+        <v>229692.9736993707</v>
+      </c>
+      <c r="N2" t="n">
         <v>229692.9736993706</v>
-      </c>
-      <c r="N2" t="n">
-        <v>229692.9736993707</v>
       </c>
       <c r="O2" t="n">
         <v>229692.9736993706</v>
@@ -26389,7 +26389,7 @@
         <v>209917.1901890308</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910621</v>
+        <v>63059.94259910625</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213639</v>
+        <v>8757.582995213641</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26441,7 +26441,7 @@
         <v>9044.250773184249</v>
       </c>
       <c r="J4" t="n">
-        <v>9044.250773184249</v>
+        <v>9044.250773184247</v>
       </c>
       <c r="K4" t="n">
         <v>9044.250773184249</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8036.816920073512</v>
+        <v>19033.02647810993</v>
       </c>
       <c r="C6" t="n">
-        <v>88806.24845162118</v>
+        <v>99802.45800965767</v>
       </c>
       <c r="D6" t="n">
-        <v>88806.24845162124</v>
+        <v>99802.45800965764</v>
       </c>
       <c r="E6" t="n">
-        <v>91873.93503424464</v>
+        <v>102374.1923664367</v>
       </c>
       <c r="F6" t="n">
-        <v>130502.8161634802</v>
+        <v>141003.0734956723</v>
       </c>
       <c r="G6" t="n">
-        <v>130502.8161634802</v>
+        <v>141003.0734956723</v>
       </c>
       <c r="H6" t="n">
-        <v>130502.8161634803</v>
+        <v>141003.0734956723</v>
       </c>
       <c r="I6" t="n">
-        <v>-33534.84207816475</v>
+        <v>-25941.59574724114</v>
       </c>
       <c r="J6" t="n">
-        <v>113322.4055117599</v>
+        <v>120915.6518426834</v>
       </c>
       <c r="K6" t="n">
-        <v>176382.3481108661</v>
+        <v>183975.5944417896</v>
       </c>
       <c r="L6" t="n">
-        <v>176382.3481108661</v>
+        <v>183975.5944417897</v>
       </c>
       <c r="M6" t="n">
-        <v>167624.7651156524</v>
+        <v>175218.0114465761</v>
       </c>
       <c r="N6" t="n">
-        <v>176382.3481108661</v>
+        <v>183975.5944417896</v>
       </c>
       <c r="O6" t="n">
-        <v>176382.3481108661</v>
+        <v>183975.5944417896</v>
       </c>
       <c r="P6" t="n">
-        <v>176382.3481108661</v>
+        <v>183975.5944417896</v>
       </c>
     </row>
   </sheetData>
@@ -26752,7 +26752,7 @@
         <v>35.02126071912527</v>
       </c>
       <c r="G3" t="n">
-        <v>35.02126071912532</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="H3" t="n">
         <v>35.02126071912529</v>
@@ -26810,13 +26810,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="I4" t="n">
+        <v>505.8480854901219</v>
+      </c>
+      <c r="J4" t="n">
         <v>505.848085490122</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>505.8480854901219</v>
-      </c>
-      <c r="K4" t="n">
-        <v>505.848085490122</v>
       </c>
       <c r="L4" t="n">
         <v>505.8480854901219</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>197.725108539043</v>
+        <v>197.7251085390431</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469636</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>229.6915717877666</v>
+        <v>229.6915717877665</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469639</v>
+        <v>35.1422248246964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469636</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H17" t="n">
         <v>1.441855221466299</v>
       </c>
       <c r="I17" t="n">
-        <v>5.427767452760117</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461251</v>
       </c>
       <c r="K17" t="n">
-        <v>17.90888720884598</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L17" t="n">
-        <v>22.21755819470701</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M17" t="n">
-        <v>24.72131435677231</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N17" t="n">
-        <v>25.12133106840333</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O17" t="n">
-        <v>23.72136057081216</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P17" t="n">
-        <v>20.24563243411505</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.20362680796962</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R17" t="n">
-        <v>8.843836255870375</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S17" t="n">
-        <v>3.208229059847511</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6163037941626976</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U17" t="n">
         <v>0.01126311902524632</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07532874947132616</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7275171330520185</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I18" t="n">
-        <v>2.593555628727677</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J18" t="n">
-        <v>7.116914878779986</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K18" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L18" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M18" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N18" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O18" t="n">
-        <v>17.92262575689048</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P18" t="n">
-        <v>14.38448725650262</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.615648792164372</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R18" t="n">
-        <v>4.676990252263567</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S18" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3036277226497751</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004955838781008301</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06315309310006204</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5614884095623701</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I19" t="n">
-        <v>1.899185745227321</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J19" t="n">
-        <v>4.464923682174386</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K19" t="n">
-        <v>7.337241180170842</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L19" t="n">
-        <v>9.38914258689468</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M19" t="n">
-        <v>9.899534402948815</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N19" t="n">
-        <v>9.664145601394045</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O19" t="n">
-        <v>8.926402650179682</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P19" t="n">
-        <v>7.638079550938409</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.288210368587922</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R19" t="n">
-        <v>2.839592713390061</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S19" t="n">
         <v>1.100586177025626</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2698359432457195</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003444714169094297</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,31 +32463,31 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155789</v>
       </c>
       <c r="H20" t="n">
-        <v>1.441855221466299</v>
+        <v>1.441855221466298</v>
       </c>
       <c r="I20" t="n">
-        <v>5.427767452760113</v>
+        <v>5.427767452760112</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461251</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="K20" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884596</v>
       </c>
       <c r="L20" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470699</v>
       </c>
       <c r="M20" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677229</v>
       </c>
       <c r="N20" t="n">
         <v>25.12133106840331</v>
       </c>
       <c r="O20" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081214</v>
       </c>
       <c r="P20" t="n">
         <v>20.24563243411504</v>
@@ -32496,16 +32496,16 @@
         <v>15.20362680796961</v>
       </c>
       <c r="R20" t="n">
-        <v>8.84383625587037</v>
+        <v>8.843836255870368</v>
       </c>
       <c r="S20" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847508</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.6163037941626971</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524631</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.07532874947132609</v>
       </c>
       <c r="H21" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520179</v>
       </c>
       <c r="I21" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727675</v>
       </c>
       <c r="J21" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779981</v>
       </c>
       <c r="K21" t="n">
         <v>12.16394109335883</v>
       </c>
       <c r="L21" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358771</v>
       </c>
       <c r="M21" t="n">
         <v>19.08658709192328</v>
@@ -32566,16 +32566,16 @@
         <v>19.59175225833406</v>
       </c>
       <c r="O21" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689046</v>
       </c>
       <c r="P21" t="n">
         <v>14.38448725650261</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164363</v>
       </c>
       <c r="R21" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263564</v>
       </c>
       <c r="S21" t="n">
         <v>1.399198482504675</v>
@@ -32584,7 +32584,7 @@
         <v>0.3036277226497748</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008298</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006198</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623697</v>
       </c>
       <c r="I22" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227319</v>
       </c>
       <c r="J22" t="n">
         <v>4.464923682174383</v>
       </c>
       <c r="K22" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170836</v>
       </c>
       <c r="L22" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894671</v>
       </c>
       <c r="M22" t="n">
-        <v>9.899534402948808</v>
+        <v>9.899534402948806</v>
       </c>
       <c r="N22" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394038</v>
       </c>
       <c r="O22" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179673</v>
       </c>
       <c r="P22" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938403</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587918</v>
       </c>
       <c r="R22" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390059</v>
       </c>
       <c r="S22" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025625</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457193</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M6" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>226.4350751681936</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>6.370323552522121</v>
       </c>
       <c r="K12" t="n">
-        <v>16.9542788783718</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L12" t="n">
-        <v>248.6418854471727</v>
+        <v>117.41311485904</v>
       </c>
       <c r="M12" t="n">
         <v>276.1565137023554</v>
@@ -35503,13 +35503,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="O12" t="n">
-        <v>269.1887005891755</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>248.6418854471727</v>
+        <v>73.09363939595693</v>
       </c>
       <c r="M15" t="n">
         <v>276.1565137023554</v>
@@ -35743,10 +35743,10 @@
         <v>269.1887005891755</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q15" t="n">
-        <v>23.3246024308939</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35901,10 +35901,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P17" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.212927593424819</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L18" t="n">
         <v>248.6418854471727</v>
@@ -35977,13 +35977,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="O18" t="n">
-        <v>269.1887005891755</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>67.64407789397694</v>
       </c>
       <c r="Q18" t="n">
-        <v>23.3246024308939</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,19 +36047,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M19" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N19" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O19" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P19" t="n">
-        <v>4.916638815831897</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>110.8113448503281</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424807</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>126.808425193966</v>
+        <v>73.09363939595693</v>
       </c>
       <c r="M21" t="n">
         <v>276.1565137023554</v>
@@ -36217,7 +36217,7 @@
         <v>269.1887005891755</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36287,7 +36287,7 @@
         <v>36.97916784721081</v>
       </c>
       <c r="M22" t="n">
-        <v>49.4834113647894</v>
+        <v>49.48341136478939</v>
       </c>
       <c r="N22" t="n">
         <v>53.79631798062263</v>
@@ -36296,7 +36296,7 @@
         <v>33.51153056421935</v>
       </c>
       <c r="P22" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831891</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>82.88347547881139</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>340.9851071285437</v>
@@ -36457,7 +36457,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>82.88347547881098</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>207.4636383870685</v>
       </c>
       <c r="L27" t="n">
         <v>340.9851071285437</v>
@@ -36691,10 +36691,10 @@
         <v>370.3773228808498</v>
       </c>
       <c r="P27" t="n">
-        <v>280.0856388177025</v>
+        <v>21.50571385499751</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.88347547881098</v>
+        <v>133.9997620544477</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>82.88347547881139</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>340.9851071285437</v>
@@ -36931,7 +36931,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>82.88347547881098</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>46.55142320383842</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>370.3773228808498</v>
       </c>
       <c r="P36" t="n">
-        <v>182.4179290382278</v>
+        <v>280.0856388177025</v>
       </c>
       <c r="Q36" t="n">
-        <v>133.9997620544477</v>
+        <v>82.88347547881122</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>82.88347547881139</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>340.9851071285437</v>
@@ -37642,7 +37642,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>82.88347547881122</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>46.55142320383842</v>
       </c>
       <c r="K42" t="n">
-        <v>82.88347547881139</v>
+        <v>207.4636383870685</v>
       </c>
       <c r="L42" t="n">
         <v>340.9851071285437</v>
@@ -37873,13 +37873,13 @@
         <v>478.2046900964478</v>
       </c>
       <c r="O42" t="n">
-        <v>370.3773228808498</v>
+        <v>65.24597471430624</v>
       </c>
       <c r="P42" t="n">
         <v>280.0856388177025</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>133.9997620544477</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>46.55142320383842</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.33205227497295</v>
+        <v>82.88347547881098</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
